--- a/cat-examples/excel/excel-definitions.xlsx
+++ b/cat-examples/excel/excel-definitions.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JakubVala\source\repos\github-cat\test-definitions-drafts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JakubVala\source\repos\github-cat\cat-examples\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED63A122-2C3D-4ECD-B07D-6AC0172EE277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6599A32F-D419-4DB0-9AB3-D2AA89441801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="4730" windowWidth="19420" windowHeight="11500" xr2:uid="{63C4BC7D-BC48-443D-BDD0-BCF830ACFB97}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{63C4BC7D-BC48-443D-BDD0-BCF830ACFB97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>First Query</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Set is not empty</t>
   </si>
   <si>
-    <t>SetsMatch</t>
-  </si>
-  <si>
     <t>First Data Source</t>
   </si>
   <si>
@@ -68,166 +65,13 @@
     <t>t1</t>
   </si>
   <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
     <t>test1</t>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
     <t>DWH</t>
   </si>
   <si>
-    <t>SELECT * FROM DIM.DESTINATIONS</t>
-  </si>
-  <si>
     <t>SELECT * FROM DIM.AIRLINES</t>
-  </si>
-  <si>
-    <t>SELECT * FROM DIM.DATES</t>
-  </si>
-  <si>
-    <t>SELECT * FROM DIM.GATES</t>
-  </si>
-  <si>
-    <t>SELECT * FROM DIM.LUGGAGE_TYPE</t>
-  </si>
-  <si>
-    <t>SELECT * FROM DIM.PLANES</t>
-  </si>
-  <si>
-    <t>SELECT * FROM DIM.TICKET_TYPE</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>SELECT * FROM FACT.DEPARTURES</t>
-  </si>
-  <si>
-    <t>SELECT * FROM FACT.PASSENGERS</t>
-  </si>
-  <si>
-    <t>SELECT * FROM STAGE.AIRLINES</t>
-  </si>
-  <si>
-    <t>SELECT * FROM STAGE.DATES</t>
-  </si>
-  <si>
-    <t>SELECT * FROM STAGE.DESTINATIONS</t>
-  </si>
-  <si>
-    <t>SELECT * FROM STAGE.GATES</t>
-  </si>
-  <si>
-    <t>SELECT * FROM STAGE.LUGGAGE_TYPE</t>
-  </si>
-  <si>
-    <t>SELECT * FROM STAGE.PLANES</t>
-  </si>
-  <si>
-    <t>SELECT * FROM STAGE.TICKET_TYPE</t>
-  </si>
-  <si>
-    <t>SELECT * FROM STAGE.DEPARTURES</t>
-  </si>
-  <si>
-    <t>SELECT * FROM STAGE.PASSENGERS</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>test13</t>
-  </si>
-  <si>
-    <t>test14</t>
-  </si>
-  <si>
-    <t>test15</t>
-  </si>
-  <si>
-    <t>test16</t>
-  </si>
-  <si>
-    <t>test17</t>
-  </si>
-  <si>
-    <t>test18</t>
   </si>
 </sst>
 </file>
@@ -652,7 +496,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,19 +511,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -690,16 +534,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" t="s">
@@ -707,362 +551,79 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" t="s">
-        <v>4</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
